--- a/iselUssSyncV2/OutputWSL/20220426_1040_D50L474W90Q30U0.38H100G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1040_D50L474W90Q30U0.38H100G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>100.8892063492064</v>
+        <v>100.89013711622731</v>
       </c>
       <c r="F2" s="0">
-        <v>100.7495634920635</v>
+        <v>100.75049425908445</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>101.21150793650794</v>
+        <v>101.21378314478144</v>
       </c>
       <c r="F3" s="0">
-        <v>102.17738095238091</v>
+        <v>102.17965616065443</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>100.50071428571427</v>
+        <v>100.50346521935406</v>
       </c>
       <c r="F4" s="0">
-        <v>104.09059523809519</v>
+        <v>104.09334617173498</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>99.918207171314776</v>
+        <v>99.921013261518667</v>
       </c>
       <c r="F5" s="0">
-        <v>104.65513944223112</v>
+        <v>104.65794553243511</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>98.713849206349238</v>
+        <v>98.716703558546826</v>
       </c>
       <c r="F6" s="0">
-        <v>105.05400793650793</v>
+        <v>105.05686228870555</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>96.641071428571408</v>
+        <v>96.64396714819226</v>
       </c>
       <c r="F7" s="0">
-        <v>104.25515873015867</v>
+        <v>104.25805444977951</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>93.456175298804794</v>
+        <v>93.459105491278194</v>
       </c>
       <c r="F8" s="0">
-        <v>99.640478087649413</v>
+        <v>99.64340828012287</v>
       </c>
     </row>
     <row r="9">
@@ -262,10 +262,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>91.896825396825363</v>
+        <v>91.899767447960159</v>
       </c>
       <c r="F9" s="0">
-        <v>90.663055555555516</v>
+        <v>90.665997606690269</v>
       </c>
     </row>
     <row r="10">
@@ -282,7 +282,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>89.812988047808744</v>
+        <v>89.815940854473482</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -300,7 +300,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>88.19999999999996</v>
+        <v>88.202962459063457</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -318,7 +318,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>87.292817460317494</v>
+        <v>87.295784331906063</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -336,7 +336,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>86.646071428571403</v>
+        <v>86.649042436902377</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -354,10 +354,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>85.857222222222234</v>
+        <v>85.86019709151266</v>
       </c>
       <c r="F14" s="0">
-        <v>68.380992063492073</v>
+        <v>68.383966932782499</v>
       </c>
     </row>
     <row r="15">
@@ -374,10 +374,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>85.825039682539682</v>
+        <v>85.828018137006751</v>
       </c>
       <c r="F15" s="0">
-        <v>70.963928571428582</v>
+        <v>70.966907025895708</v>
       </c>
     </row>
     <row r="16">
@@ -394,10 +394,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>85.224007936507959</v>
+        <v>85.226992733979955</v>
       </c>
       <c r="F16" s="0">
-        <v>78.506071428571417</v>
+        <v>78.509056226043427</v>
       </c>
     </row>
     <row r="17">
@@ -414,10 +414,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>85.55087649402391</v>
+        <v>85.553866531369508</v>
       </c>
       <c r="F17" s="0">
-        <v>88.229003984063738</v>
+        <v>88.231994021409335</v>
       </c>
     </row>
     <row r="18">
@@ -434,10 +434,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>87.088764940239045</v>
+        <v>87.091759114326948</v>
       </c>
       <c r="F18" s="0">
-        <v>94.25940239043824</v>
+        <v>94.262396564526142</v>
       </c>
     </row>
     <row r="19">
@@ -454,10 +454,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>95.666613545816745</v>
+        <v>95.669612683995439</v>
       </c>
       <c r="F19" s="0">
-        <v>94.410996015936249</v>
+        <v>94.413995154114943</v>
       </c>
     </row>
     <row r="20">
@@ -474,10 +474,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>93.737182539682522</v>
+        <v>93.74018167786123</v>
       </c>
       <c r="F20" s="0">
-        <v>91.205158730158715</v>
+        <v>91.208157868337395</v>
       </c>
     </row>
     <row r="21">
@@ -494,10 +494,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>88.169246031746042</v>
+        <v>88.172238275354204</v>
       </c>
       <c r="F21" s="0">
-        <v>93.211031746031765</v>
+        <v>93.214023989639898</v>
       </c>
     </row>
     <row r="22">
@@ -514,10 +514,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>88.345617529880514</v>
+        <v>88.348595984347568</v>
       </c>
       <c r="F22" s="0">
-        <v>93.557928286852601</v>
+        <v>93.560906741319712</v>
       </c>
     </row>
     <row r="23">
@@ -534,10 +534,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>94.800079681274909</v>
+        <v>94.803037452030452</v>
       </c>
       <c r="F23" s="0">
-        <v>91.892629482071698</v>
+        <v>91.895587252827227</v>
       </c>
     </row>
     <row r="24">
@@ -554,10 +554,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>88.379083665338655</v>
+        <v>88.381979384959422</v>
       </c>
       <c r="F24" s="0">
-        <v>92.80047808764941</v>
+        <v>92.803373807270205</v>
       </c>
     </row>
     <row r="25">
@@ -574,10 +574,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>95.858366533864526</v>
+        <v>95.861172624068516</v>
       </c>
       <c r="F25" s="0">
-        <v>93.293187250996013</v>
+        <v>93.295993341199988</v>
       </c>
     </row>
     <row r="26">
@@ -594,10 +594,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>89.604642857142849</v>
+        <v>89.607331739647876</v>
       </c>
       <c r="F26" s="0">
-        <v>93.679404761904749</v>
+        <v>93.682093644409775</v>
       </c>
     </row>
     <row r="27">
@@ -614,10 +614,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>95.44960159362553</v>
+        <v>95.452145690149493</v>
       </c>
       <c r="F27" s="0">
-        <v>93.277768924302777</v>
+        <v>93.280313020826782</v>
       </c>
     </row>
     <row r="28">
@@ -634,10 +634,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>89.940557768924279</v>
+        <v>89.942929501185162</v>
       </c>
       <c r="F28" s="0">
-        <v>93.017410358565726</v>
+        <v>93.019782090826581</v>
       </c>
     </row>
     <row r="29">
@@ -654,10 +654,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>95.059203187251001</v>
+        <v>95.061374976966604</v>
       </c>
       <c r="F29" s="0">
-        <v>92.940438247011954</v>
+        <v>92.942610036727544</v>
       </c>
     </row>
     <row r="30">
@@ -674,10 +674,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>95.08414342629483</v>
+        <v>95.085832596073601</v>
       </c>
       <c r="F30" s="0">
-        <v>92.735856573705163</v>
+        <v>92.737545743483963</v>
       </c>
     </row>
   </sheetData>
